--- a/SPNE vs Greedy vs Allqueue.xlsx
+++ b/SPNE vs Greedy vs Allqueue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiet Nguyen\Documents\UofR\Algorithmic Game Theory\Starbuck's Paradox\Asynchronous Queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A347E132-8F9B-44BD-B274-25A5ACFDFC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A900406-B3B0-4538-96FF-DA4518E59939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{CC84D161-24B6-4109-A9D4-4DA206B441BD}"/>
   </bookViews>
@@ -2879,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F119510-2F65-435F-BC94-2D15C0B049C0}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
